--- a/sales/protected/commands/template/readexcel.xlsx
+++ b/sales/protected/commands/template/readexcel.xlsx
@@ -702,175 +702,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1004,10 +1004,10 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1016,137 +1016,137 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1218,9 +1218,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1549,8 +1546,8 @@
   <sheetPr/>
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1596,7 +1593,7 @@
       <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="8"/>
@@ -1606,7 +1603,7 @@
       <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="8"/>
@@ -1616,7 +1613,7 @@
       <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="8"/>
@@ -1626,7 +1623,7 @@
       <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="8"/>
@@ -2433,7 +2430,7 @@
       <c r="A85" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B85" s="24" t="s">
+      <c r="B85" s="13" t="s">
         <v>140</v>
       </c>
       <c r="C85" s="7" t="s">
@@ -2444,7 +2441,7 @@
       </c>
     </row>
     <row r="86" customFormat="1" spans="2:2">
-      <c r="B86" s="25"/>
+      <c r="B86" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/sales/protected/commands/template/readexcel.xlsx
+++ b/sales/protected/commands/template/readexcel.xlsx
@@ -179,7 +179,7 @@
     <t>得分 * 1.2</t>
   </si>
   <si>
-    <t>地方销售人员/整体区比例（销售总人数/客户区域总数）</t>
+    <t>地方销售人员/地方区域个数（销售总人数/客户区域总数）</t>
   </si>
   <si>
     <t>比例  &lt; 1/4</t>
@@ -227,7 +227,7 @@
     <t>销售副经理以下</t>
   </si>
   <si>
-    <t>当前赛季累计到今月应得分数</t>
+    <t>当月所有得分乘以倍数后</t>
   </si>
   <si>
     <t>当月所有得分*以上所有倍数，得到今月应得分数</t>
@@ -702,6 +702,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -738,6 +750,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -774,103 +792,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1004,10 +1004,10 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1016,130 +1016,130 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1544,15 +1544,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="47.625" customWidth="1"/>
+    <col min="1" max="1" width="50" customWidth="1"/>
     <col min="2" max="2" width="27.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="47" customWidth="1"/>
     <col min="4" max="4" width="37.1083333333333" customWidth="1"/>
@@ -2072,7 +2072,7 @@
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
     </row>
-    <row r="57" ht="29" customHeight="1" spans="1:4">
+    <row r="57" ht="30" customHeight="1" spans="1:4">
       <c r="A57" s="16" t="s">
         <v>68</v>
       </c>
@@ -2082,146 +2082,161 @@
       </c>
       <c r="D57" s="12"/>
     </row>
-    <row r="60" customFormat="1" ht="40" customHeight="1" spans="1:4">
-      <c r="A60" s="22" t="s">
+    <row r="58" ht="23" customHeight="1"/>
+    <row r="59" customFormat="1" ht="40" customHeight="1" spans="1:4">
+      <c r="A59" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-    </row>
-    <row r="61" s="2" customFormat="1" spans="1:4">
-      <c r="A61" s="23" t="s">
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+    </row>
+    <row r="60" s="2" customFormat="1" spans="1:4">
+      <c r="A60" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="B61" s="23" t="s">
+      <c r="B60" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C61" s="18" t="s">
+      <c r="C60" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D61" s="18" t="s">
+      <c r="D60" s="18" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="61" customFormat="1" spans="1:4">
+      <c r="A61" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="62" customFormat="1" spans="1:4">
       <c r="A62" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" customFormat="1" spans="1:4">
       <c r="A63" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" customFormat="1" spans="1:4">
       <c r="A64" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" customFormat="1" spans="1:4">
       <c r="A65" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" customFormat="1" spans="1:4">
       <c r="A66" s="7" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" customFormat="1" spans="1:4">
       <c r="A67" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" customFormat="1" spans="1:4">
       <c r="A68" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" customFormat="1" spans="1:4">
       <c r="A69" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70" customFormat="1" spans="1:4">
       <c r="A70" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>105</v>
@@ -2232,24 +2247,24 @@
     </row>
     <row r="71" customFormat="1" spans="1:4">
       <c r="A71" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72" customFormat="1" spans="1:4">
       <c r="A72" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>109</v>
@@ -2260,24 +2275,24 @@
     </row>
     <row r="73" customFormat="1" spans="1:4">
       <c r="A73" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74" customFormat="1" spans="1:4">
       <c r="A74" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>113</v>
@@ -2288,38 +2303,38 @@
     </row>
     <row r="75" customFormat="1" spans="1:4">
       <c r="A75" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="76" customFormat="1" spans="1:4">
       <c r="A76" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="77" customFormat="1" spans="1:4">
       <c r="A77" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>120</v>
@@ -2330,83 +2345,83 @@
     </row>
     <row r="78" customFormat="1" spans="1:4">
       <c r="A78" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="79" customFormat="1" spans="1:4">
       <c r="A79" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80" customFormat="1" spans="1:4">
       <c r="A80" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" customFormat="1" spans="1:4">
       <c r="A81" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="82" customFormat="1" spans="1:4">
       <c r="A82" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>133</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="83" customFormat="1" spans="1:4">
       <c r="A83" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>136</v>
@@ -2414,38 +2429,24 @@
     </row>
     <row r="84" customFormat="1" spans="1:4">
       <c r="A84" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>140</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="85" customFormat="1" spans="1:4">
-      <c r="A85" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B85" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="86" customFormat="1" spans="2:2">
-      <c r="B86" s="24"/>
+    <row r="85" customFormat="1" spans="2:2">
+      <c r="B85" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A59:D59"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/sales/protected/commands/template/readexcel.xlsx
+++ b/sales/protected/commands/template/readexcel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="122">
   <si>
     <t>销售段位得分规则</t>
   </si>
@@ -86,16 +86,13 @@
     <t>年金额 * 0.3 * (1+0.02*（(B)-1）)= 得分</t>
   </si>
   <si>
-    <t>销售每月产品（不包括洗地易）签单 (C)</t>
-  </si>
-  <si>
     <t>销售每月产品（不包括洗地易）签单金额</t>
   </si>
   <si>
     <t>金额</t>
   </si>
   <si>
-    <t>金额 * 0.8 * (1+0.005*（(C)-1）)= 得分</t>
+    <t>金额 * 0.4 = 得分</t>
   </si>
   <si>
     <t>销售每月洗地易/甲醛签单单数 (D)</t>
@@ -107,7 +104,7 @@
     <t xml:space="preserve">金额 </t>
   </si>
   <si>
-    <t>金额 * 1.5 * (1+0.02*（(D)-1）)= 得分</t>
+    <t>金额 * 1.3 * (1+0.02*（(D)-1）)= 得分</t>
   </si>
   <si>
     <t>每月销售龙虎榜城市人均签单量排名</t>
@@ -213,9 +210,6 @@
   </si>
   <si>
     <t>商业组</t>
-  </si>
-  <si>
-    <t>得分 * 1.3</t>
   </si>
   <si>
     <t>销售岗位级别</t>
@@ -252,184 +246,133 @@
     <t>珍爱1段</t>
   </si>
   <si>
-    <t>540000或以上</t>
+    <t>324000或以上</t>
   </si>
   <si>
     <t>钻石1段</t>
   </si>
   <si>
-    <t>350000</t>
-  </si>
-  <si>
     <t>珍爱2段</t>
   </si>
   <si>
-    <t>500000-539999</t>
+    <t>294000-323999</t>
   </si>
   <si>
     <t>钻石2段</t>
   </si>
   <si>
-    <t>320000</t>
-  </si>
-  <si>
     <t>珍爱3段</t>
   </si>
   <si>
-    <t>460000-499999</t>
+    <t>264000-293999</t>
   </si>
   <si>
     <t>钻石3段</t>
   </si>
   <si>
-    <t>290000</t>
-  </si>
-  <si>
     <t>珍爱4段</t>
   </si>
   <si>
-    <t>420000-459999</t>
+    <t>234000-263999</t>
   </si>
   <si>
     <t>钻石4段</t>
   </si>
   <si>
-    <t>260000</t>
-  </si>
-  <si>
     <t>珍爱5段</t>
   </si>
   <si>
-    <t>380000-419999</t>
+    <t>204000-223999</t>
   </si>
   <si>
     <t>钻石5段</t>
   </si>
   <si>
-    <t>230000</t>
-  </si>
-  <si>
-    <t>350000-379999</t>
+    <t>184000-203999</t>
   </si>
   <si>
     <t>铂金1段</t>
   </si>
   <si>
-    <t>200000</t>
-  </si>
-  <si>
-    <t>320000-339999</t>
+    <t>164000-183999</t>
   </si>
   <si>
     <t>铂金2段</t>
   </si>
   <si>
-    <t>180000</t>
-  </si>
-  <si>
-    <t>290000-309999</t>
+    <t>144000-163999</t>
   </si>
   <si>
     <t>铂金3段</t>
   </si>
   <si>
-    <t>160000</t>
-  </si>
-  <si>
-    <t>260000-279999</t>
+    <t>124000-143999</t>
   </si>
   <si>
     <t>铂金4段</t>
   </si>
   <si>
-    <t>140000</t>
-  </si>
-  <si>
-    <t>230000-259999</t>
-  </si>
-  <si>
-    <t>200000-229999</t>
+    <t>104000-123999</t>
+  </si>
+  <si>
+    <t>99000-103999</t>
   </si>
   <si>
     <t>黄金1段</t>
   </si>
   <si>
-    <t>120000</t>
-  </si>
-  <si>
-    <t>180000-199999</t>
-  </si>
-  <si>
-    <t>160000-179999</t>
+    <t>84000-98999</t>
+  </si>
+  <si>
+    <t>79000-83999</t>
   </si>
   <si>
     <t>黄金2段</t>
   </si>
   <si>
-    <t>100000</t>
-  </si>
-  <si>
-    <t>140000-159999</t>
-  </si>
-  <si>
-    <t>120000-139999</t>
+    <t>64000-78999</t>
+  </si>
+  <si>
+    <t>54000-63999</t>
   </si>
   <si>
     <t>黄金3段</t>
   </si>
   <si>
-    <t>80000</t>
-  </si>
-  <si>
-    <t>100000-119999</t>
+    <t>44000-53999</t>
   </si>
   <si>
     <t>黄金4段</t>
   </si>
   <si>
-    <t>60000</t>
-  </si>
-  <si>
-    <t>80000-99999</t>
-  </si>
-  <si>
-    <t>60000-79999</t>
+    <t>34000-43999</t>
+  </si>
+  <si>
+    <t>24000-33999</t>
   </si>
   <si>
     <t>白银1段</t>
   </si>
   <si>
-    <t>40000</t>
-  </si>
-  <si>
-    <t>40000-59999</t>
+    <t>19000-23999</t>
   </si>
   <si>
     <t>白银2段</t>
   </si>
   <si>
-    <t>30000</t>
-  </si>
-  <si>
-    <t>30000-39999</t>
+    <t>14000-18999</t>
   </si>
   <si>
     <t>白银3段</t>
   </si>
   <si>
-    <t>20000</t>
-  </si>
-  <si>
-    <t>20000-29999</t>
+    <t>9000-13999</t>
   </si>
   <si>
     <t>青铜1段</t>
   </si>
   <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>10000-19999</t>
+    <t>7000-8999</t>
   </si>
   <si>
     <t>按上赛季多少分就多少分</t>
@@ -438,7 +381,7 @@
     <t>青铜2段</t>
   </si>
   <si>
-    <t>5000-9999</t>
+    <t>5000-6999</t>
   </si>
   <si>
     <t>青铜3段</t>
@@ -457,7 +400,7 @@
     <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -532,7 +475,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -546,16 +548,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -569,14 +592,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -585,20 +600,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -607,11 +608,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -622,58 +622,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -690,6 +638,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -708,19 +692,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,13 +782,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,122 +822,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -899,17 +847,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF000000"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -919,21 +867,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -955,20 +888,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -996,6 +933,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1004,10 +967,10 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1016,137 +979,137 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1218,6 +1181,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1544,10 +1513,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1593,7 +1562,7 @@
       <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="27" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="8"/>
@@ -1603,7 +1572,7 @@
       <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="27" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="8"/>
@@ -1613,7 +1582,7 @@
       <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="27" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="8"/>
@@ -1623,7 +1592,7 @@
       <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="27" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="8"/>
@@ -1678,125 +1647,127 @@
       <c r="A14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="B14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="D14" s="7"/>
     </row>
     <row r="15" ht="19" customHeight="1" spans="1:4">
       <c r="A15" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="7"/>
     </row>
     <row r="16" ht="19" customHeight="1" spans="1:4">
       <c r="A16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="B16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" ht="19" customHeight="1" spans="1:4">
-      <c r="A17" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="7" t="s">
+      <c r="A17" s="11"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" ht="19" customHeight="1" spans="1:4">
+      <c r="A18" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" ht="19" customHeight="1" spans="1:4">
-      <c r="A18" s="11"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
     </row>
     <row r="19" ht="19" customHeight="1" spans="1:4">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="C19" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="D19" s="7"/>
     </row>
     <row r="20" ht="19" customHeight="1" spans="1:4">
       <c r="A20" s="11"/>
       <c r="B20" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D20" s="7"/>
     </row>
     <row r="21" ht="19" customHeight="1" spans="1:4">
       <c r="A21" s="11"/>
-      <c r="B21" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="7" t="s">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" ht="19" customHeight="1" spans="1:4">
+      <c r="A22" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" ht="19" customHeight="1" spans="1:4">
-      <c r="A22" s="11"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
     </row>
     <row r="23" ht="19" customHeight="1" spans="1:4">
-      <c r="A23" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="D23" s="7"/>
     </row>
     <row r="24" ht="19" customHeight="1" spans="1:4">
       <c r="A24" s="7"/>
       <c r="B24" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D24" s="7"/>
     </row>
     <row r="25" ht="19" customHeight="1" spans="1:4">
       <c r="A25" s="7"/>
-      <c r="B25" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>33</v>
-      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
       <c r="D25" s="7"/>
     </row>
     <row r="26" ht="19" customHeight="1" spans="1:4">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
+      <c r="A26" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="13">
+        <v>5000</v>
+      </c>
       <c r="D26" s="7"/>
     </row>
     <row r="27" ht="19" customHeight="1" spans="1:4">
-      <c r="A27" s="11" t="s">
-        <v>35</v>
-      </c>
+      <c r="A27" s="7"/>
       <c r="B27" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C27" s="13">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="D27" s="7"/>
     </row>
@@ -1806,7 +1777,7 @@
         <v>37</v>
       </c>
       <c r="C28" s="13">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="D28" s="7"/>
     </row>
@@ -1816,7 +1787,7 @@
         <v>38</v>
       </c>
       <c r="C29" s="13">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="D29" s="7"/>
     </row>
@@ -1826,7 +1797,7 @@
         <v>39</v>
       </c>
       <c r="C30" s="13">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D30" s="7"/>
     </row>
@@ -1836,76 +1807,76 @@
         <v>40</v>
       </c>
       <c r="C31" s="13">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="D31" s="7"/>
     </row>
-    <row r="32" ht="19" customHeight="1" spans="1:4">
+    <row r="32" ht="33" customHeight="1" spans="1:4">
       <c r="A32" s="7"/>
       <c r="B32" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C32" s="13">
-        <v>100</v>
-      </c>
-      <c r="D32" s="7"/>
-    </row>
-    <row r="33" ht="33" customHeight="1" spans="1:4">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7" t="s">
+        <v>-500</v>
+      </c>
+      <c r="D32" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="13">
-        <v>-500</v>
-      </c>
-      <c r="D33" s="12" t="s">
+    </row>
+    <row r="33" ht="25" customHeight="1" spans="1:4">
+      <c r="A33" s="14" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="34" ht="25" customHeight="1" spans="1:4">
-      <c r="A34" s="14" t="s">
+      <c r="B33" s="15"/>
+      <c r="C33" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="16" t="s">
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" ht="19" customHeight="1" spans="1:4">
+      <c r="A34" s="17"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" ht="19" customHeight="1" spans="1:4">
+      <c r="A35" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="7"/>
-    </row>
-    <row r="35" ht="19" customHeight="1" spans="1:4">
-      <c r="A35" s="17"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="7"/>
+      <c r="D35" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="36" ht="19" customHeight="1" spans="1:4">
-      <c r="A36" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="6" t="s">
+      <c r="A36" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="37" ht="19" customHeight="1" spans="1:4">
-      <c r="A37" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7" t="s">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="D37" s="7"/>
     </row>
     <row r="38" ht="19" customHeight="1" spans="1:4">
       <c r="A38" s="7"/>
       <c r="B38" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>48</v>
@@ -1915,7 +1886,7 @@
     <row r="39" ht="19" customHeight="1" spans="1:4">
       <c r="A39" s="7"/>
       <c r="B39" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>49</v>
@@ -1925,7 +1896,7 @@
     <row r="40" ht="19" customHeight="1" spans="1:4">
       <c r="A40" s="7"/>
       <c r="B40" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>50</v>
@@ -1934,82 +1905,82 @@
     </row>
     <row r="41" ht="19" customHeight="1" spans="1:4">
       <c r="A41" s="7"/>
-      <c r="B41" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="7" t="s">
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
+      <c r="A42" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D41" s="7"/>
-    </row>
-    <row r="42" ht="19" customHeight="1" spans="1:4">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-    </row>
-    <row r="43" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
-      <c r="A43" s="19" t="s">
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" ht="19" customHeight="1" spans="1:4">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20" t="s">
-        <v>47</v>
-      </c>
+      <c r="C43" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="7"/>
     </row>
     <row r="44" ht="19" customHeight="1" spans="1:4">
       <c r="A44" s="7"/>
       <c r="B44" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D44" s="7"/>
     </row>
     <row r="45" ht="19" customHeight="1" spans="1:4">
       <c r="A45" s="7"/>
       <c r="B45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D45" s="7"/>
     </row>
     <row r="46" ht="19" customHeight="1" spans="1:4">
       <c r="A46" s="7"/>
       <c r="B46" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D46" s="7"/>
     </row>
     <row r="47" ht="19" customHeight="1" spans="1:4">
       <c r="A47" s="7"/>
-      <c r="B47" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C47" s="7" t="s">
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+    </row>
+    <row r="48" ht="19" customHeight="1" spans="1:4">
+      <c r="A48" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D47" s="7"/>
-    </row>
-    <row r="48" ht="19" customHeight="1" spans="1:4">
-      <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" ht="19" customHeight="1" spans="1:4">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
+      <c r="C49" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="D49" s="7"/>
     </row>
     <row r="50" ht="19" customHeight="1" spans="1:4">
@@ -2018,435 +1989,446 @@
         <v>62</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D50" s="7"/>
     </row>
     <row r="51" ht="19" customHeight="1" spans="1:4">
       <c r="A51" s="7"/>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+    </row>
+    <row r="52" ht="19" customHeight="1" spans="1:4">
+      <c r="A52" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C51" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D51" s="7"/>
-    </row>
-    <row r="52" ht="19" customHeight="1" spans="1:4">
-      <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
     </row>
     <row r="53" ht="19" customHeight="1" spans="1:4">
-      <c r="A53" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
+      <c r="A53" s="7"/>
+      <c r="B53" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="D53" s="7"/>
     </row>
     <row r="54" ht="19" customHeight="1" spans="1:4">
       <c r="A54" s="7"/>
       <c r="B54" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D54" s="7"/>
     </row>
     <row r="55" ht="19" customHeight="1" spans="1:4">
       <c r="A55" s="7"/>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+    </row>
+    <row r="56" ht="30" customHeight="1" spans="1:4">
+      <c r="A56" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" s="21"/>
+      <c r="C56" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C55" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D55" s="7"/>
-    </row>
-    <row r="56" ht="19" customHeight="1" spans="1:4">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-    </row>
-    <row r="57" ht="30" customHeight="1" spans="1:4">
-      <c r="A57" s="16" t="s">
+      <c r="D56" s="12"/>
+    </row>
+    <row r="57" ht="23" customHeight="1"/>
+    <row r="58" customFormat="1" ht="40" customHeight="1" spans="1:4">
+      <c r="A58" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B57" s="21"/>
-      <c r="C57" s="16" t="s">
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+    </row>
+    <row r="59" s="2" customFormat="1" spans="1:4">
+      <c r="A59" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="D57" s="12"/>
-    </row>
-    <row r="58" ht="23" customHeight="1"/>
-    <row r="59" customFormat="1" ht="40" customHeight="1" spans="1:4">
-      <c r="A59" s="22" t="s">
+      <c r="B59" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-    </row>
-    <row r="60" s="2" customFormat="1" spans="1:4">
-      <c r="A60" s="23" t="s">
+      <c r="C59" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="B60" s="23" t="s">
+      <c r="D59" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C60" s="18" t="s">
+    </row>
+    <row r="60" customFormat="1" spans="1:4">
+      <c r="A60" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D60" s="18" t="s">
+      <c r="B60" s="24" t="s">
         <v>74</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D60" s="24" t="str">
+        <f t="shared" ref="D60:D68" si="0">LEFT(B65,FIND("-",B65)-1)</f>
+        <v>184000</v>
       </c>
     </row>
     <row r="61" customFormat="1" spans="1:4">
       <c r="A61" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B61" s="7" t="s">
         <v>76</v>
       </c>
+      <c r="B61" s="24" t="s">
+        <v>77</v>
+      </c>
       <c r="C61" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D61" s="7" t="s">
         <v>78</v>
+      </c>
+      <c r="D61" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>164000</v>
       </c>
     </row>
     <row r="62" customFormat="1" spans="1:4">
       <c r="A62" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="24" t="s">
         <v>80</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D62" s="7" t="s">
-        <v>82</v>
+      <c r="D62" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>144000</v>
       </c>
     </row>
     <row r="63" customFormat="1" spans="1:4">
       <c r="A63" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B63" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="C63" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C63" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>86</v>
+      <c r="D63" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>124000</v>
       </c>
     </row>
     <row r="64" customFormat="1" spans="1:4">
       <c r="A64" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B64" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="D64" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>104000</v>
+      </c>
+    </row>
+    <row r="65" customFormat="1" spans="1:4">
+      <c r="A65" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B65" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C65" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D64" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="65" customFormat="1" spans="1:4">
-      <c r="A65" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>94</v>
+      <c r="D65" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>99000</v>
       </c>
     </row>
     <row r="66" customFormat="1" spans="1:4">
       <c r="A66" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>95</v>
+        <v>78</v>
+      </c>
+      <c r="B66" s="24" t="s">
+        <v>90</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="D66" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>84000</v>
       </c>
     </row>
     <row r="67" customFormat="1" spans="1:4">
       <c r="A67" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B67" s="7" t="s">
-        <v>98</v>
+      <c r="B67" s="24" t="s">
+        <v>92</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>100</v>
+        <v>93</v>
+      </c>
+      <c r="D67" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>79000</v>
       </c>
     </row>
     <row r="68" customFormat="1" spans="1:4">
       <c r="A68" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>101</v>
+        <v>84</v>
+      </c>
+      <c r="B68" s="24" t="s">
+        <v>94</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>103</v>
+        <v>95</v>
+      </c>
+      <c r="D68" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>64000</v>
       </c>
     </row>
     <row r="69" customFormat="1" spans="1:4">
       <c r="A69" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B69" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D69" s="24" t="str">
+        <f>LEFT(B73,FIND("-",B73)-1)</f>
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="70" customFormat="1" spans="1:4">
+      <c r="A70" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B69" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="70" customFormat="1" spans="1:4">
-      <c r="A70" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>107</v>
+      <c r="B70" s="24" t="s">
+        <v>97</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
+      </c>
+      <c r="D70" s="24" t="str">
+        <f>LEFT(B74,FIND("-",B74)-1)</f>
+        <v>54000</v>
       </c>
     </row>
     <row r="71" customFormat="1" spans="1:4">
       <c r="A71" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>108</v>
+        <v>91</v>
+      </c>
+      <c r="B71" s="24" t="s">
+        <v>99</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>110</v>
+        <v>98</v>
+      </c>
+      <c r="D71" s="24" t="str">
+        <f>LEFT(B74,FIND("-",B74)-1)</f>
+        <v>54000</v>
       </c>
     </row>
     <row r="72" customFormat="1" spans="1:4">
       <c r="A72" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>111</v>
+        <v>93</v>
+      </c>
+      <c r="B72" s="24" t="s">
+        <v>100</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>110</v>
+        <v>101</v>
+      </c>
+      <c r="D72" s="24" t="str">
+        <f>LEFT(B75,FIND("-",B75)-1)</f>
+        <v>44000</v>
       </c>
     </row>
     <row r="73" customFormat="1" spans="1:4">
       <c r="A73" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B73" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="B73" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="C73" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>114</v>
+        <v>101</v>
+      </c>
+      <c r="D73" s="24" t="str">
+        <f t="shared" ref="D73:D75" si="1">LEFT(B75,FIND("-",B75)-1)</f>
+        <v>44000</v>
       </c>
     </row>
     <row r="74" customFormat="1" spans="1:4">
-      <c r="A74" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>115</v>
+      <c r="A74" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B74" s="24" t="s">
+        <v>103</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>114</v>
+        <v>104</v>
+      </c>
+      <c r="D74" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>34000</v>
       </c>
     </row>
     <row r="75" customFormat="1" spans="1:4">
       <c r="A75" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>116</v>
+        <v>101</v>
+      </c>
+      <c r="B75" s="24" t="s">
+        <v>105</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>118</v>
+        <v>106</v>
+      </c>
+      <c r="D75" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>24000</v>
       </c>
     </row>
     <row r="76" customFormat="1" spans="1:4">
       <c r="A76" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>119</v>
+        <v>104</v>
+      </c>
+      <c r="B76" s="24" t="s">
+        <v>107</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>121</v>
+        <v>106</v>
+      </c>
+      <c r="D76" s="24" t="str">
+        <f t="shared" ref="D76:D80" si="2">LEFT(B77,FIND("-",B77)-1)</f>
+        <v>24000</v>
       </c>
     </row>
     <row r="77" customFormat="1" spans="1:4">
       <c r="A77" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>122</v>
+        <v>106</v>
+      </c>
+      <c r="B77" s="24" t="s">
+        <v>108</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>121</v>
+        <v>109</v>
+      </c>
+      <c r="D77" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>19000</v>
       </c>
     </row>
     <row r="78" customFormat="1" spans="1:4">
-      <c r="A78" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>123</v>
+      <c r="A78" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B78" s="24" t="s">
+        <v>110</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>125</v>
+        <v>111</v>
+      </c>
+      <c r="D78" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>14000</v>
       </c>
     </row>
     <row r="79" customFormat="1" spans="1:4">
       <c r="A79" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>126</v>
+        <v>111</v>
+      </c>
+      <c r="B79" s="24" t="s">
+        <v>112</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>128</v>
+        <v>113</v>
+      </c>
+      <c r="D79" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>9000</v>
       </c>
     </row>
     <row r="80" customFormat="1" spans="1:4">
       <c r="A80" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>129</v>
+        <v>113</v>
+      </c>
+      <c r="B80" s="24" t="s">
+        <v>114</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>131</v>
+        <v>115</v>
+      </c>
+      <c r="D80" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>7000</v>
       </c>
     </row>
     <row r="81" customFormat="1" spans="1:4">
-      <c r="A81" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>132</v>
+      <c r="A81" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B81" s="24" t="s">
+        <v>116</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>134</v>
+        <v>115</v>
+      </c>
+      <c r="D81" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="82" customFormat="1" spans="1:4">
       <c r="A82" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>135</v>
+        <v>118</v>
+      </c>
+      <c r="B82" s="24" t="s">
+        <v>119</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>136</v>
+        <v>118</v>
+      </c>
+      <c r="D82" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="83" customFormat="1" spans="1:4">
       <c r="A83" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>138</v>
+        <v>120</v>
+      </c>
+      <c r="B83" s="25" t="s">
+        <v>121</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="84" customFormat="1" spans="1:4">
-      <c r="A84" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B84" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="85" customFormat="1" spans="2:2">
-      <c r="B85" s="24"/>
+        <v>120</v>
+      </c>
+      <c r="D83" s="24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" customFormat="1" spans="2:2">
+      <c r="B84" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A58:D58"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/sales/protected/commands/template/readexcel.xlsx
+++ b/sales/protected/commands/template/readexcel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="125">
   <si>
     <t>销售段位得分规则</t>
   </si>
@@ -92,19 +92,28 @@
     <t>金额</t>
   </si>
   <si>
-    <t>金额 * 0.4 = 得分</t>
-  </si>
-  <si>
-    <t>销售每月洗地易/甲醛签单单数 (D)</t>
-  </si>
-  <si>
-    <t>销售每月洗地易/甲醛签单金额</t>
+    <t>金额 * 0.1 = 得分</t>
+  </si>
+  <si>
+    <t>销售每月洗地易签单单数 (C)</t>
+  </si>
+  <si>
+    <t>销售每月洗地易签单金额</t>
   </si>
   <si>
     <t xml:space="preserve">金额 </t>
   </si>
   <si>
-    <t>金额 * 1.3 * (1+0.02*（(D)-1）)= 得分</t>
+    <t>金额 * 1.2 * (1+0.02*（(C)-1）)= 得分</t>
+  </si>
+  <si>
+    <t>销售每月甲醛签单单数 (D)</t>
+  </si>
+  <si>
+    <t>销售每月甲醛签单金额</t>
+  </si>
+  <si>
+    <t>金额 * 0.3 * (1+0.02*（(D)-1）)= 得分</t>
   </si>
   <si>
     <t>每月销售龙虎榜城市人均签单量排名</t>
@@ -246,7 +255,7 @@
     <t>珍爱1段</t>
   </si>
   <si>
-    <t>324000或以上</t>
+    <t>344000或以上</t>
   </si>
   <si>
     <t>钻石1段</t>
@@ -255,7 +264,7 @@
     <t>珍爱2段</t>
   </si>
   <si>
-    <t>294000-323999</t>
+    <t>309000-343999</t>
   </si>
   <si>
     <t>钻石2段</t>
@@ -264,7 +273,7 @@
     <t>珍爱3段</t>
   </si>
   <si>
-    <t>264000-293999</t>
+    <t>274000-308999</t>
   </si>
   <si>
     <t>钻石3段</t>
@@ -273,7 +282,7 @@
     <t>珍爱4段</t>
   </si>
   <si>
-    <t>234000-263999</t>
+    <t>239000-273999</t>
   </si>
   <si>
     <t>钻石4段</t>
@@ -282,7 +291,7 @@
     <t>珍爱5段</t>
   </si>
   <si>
-    <t>204000-223999</t>
+    <t>204000-238999</t>
   </si>
   <si>
     <t>钻石5段</t>
@@ -395,10 +404,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -445,6 +454,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -475,8 +489,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -494,19 +569,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -526,20 +608,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -548,42 +616,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -599,29 +631,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -638,187 +647,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,6 +874,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -895,17 +913,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -925,15 +939,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -949,13 +954,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -964,152 +973,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1149,19 +1158,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1176,16 +1188,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1513,10 +1525,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1562,7 +1574,7 @@
       <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="8"/>
@@ -1572,7 +1584,7 @@
       <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="28" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="8"/>
@@ -1582,7 +1594,7 @@
       <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="28" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="8"/>
@@ -1592,7 +1604,7 @@
       <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="28" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="8"/>
@@ -1650,785 +1662,805 @@
       <c r="B14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="13" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="7"/>
     </row>
     <row r="15" ht="19" customHeight="1" spans="1:4">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="7"/>
     </row>
     <row r="16" ht="19" customHeight="1" spans="1:4">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" ht="19" customHeight="1" spans="1:4">
-      <c r="A17" s="11"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A17" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
       <c r="D17" s="7"/>
     </row>
     <row r="18" ht="19" customHeight="1" spans="1:4">
-      <c r="A18" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="A18" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="D18" s="7"/>
     </row>
     <row r="19" ht="19" customHeight="1" spans="1:4">
       <c r="A19" s="11"/>
-      <c r="B19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="7"/>
     </row>
     <row r="20" ht="19" customHeight="1" spans="1:4">
-      <c r="A20" s="11"/>
-      <c r="B20" s="7" t="s">
+      <c r="A20" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" ht="19" customHeight="1" spans="1:4">
       <c r="A21" s="11"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="B21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="D21" s="7"/>
     </row>
     <row r="22" ht="19" customHeight="1" spans="1:4">
-      <c r="A22" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="D22" s="7"/>
     </row>
     <row r="23" ht="19" customHeight="1" spans="1:4">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="A23" s="11"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
       <c r="D23" s="7"/>
     </row>
     <row r="24" ht="19" customHeight="1" spans="1:4">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="A24" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
       <c r="D24" s="7"/>
     </row>
     <row r="25" ht="19" customHeight="1" spans="1:4">
       <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
+      <c r="B25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="D25" s="7"/>
     </row>
     <row r="26" ht="19" customHeight="1" spans="1:4">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="C26" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="C26" s="13">
-        <v>5000</v>
       </c>
       <c r="D26" s="7"/>
     </row>
     <row r="27" ht="19" customHeight="1" spans="1:4">
       <c r="A27" s="7"/>
-      <c r="B27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="13">
-        <v>3000</v>
-      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" ht="19" customHeight="1" spans="1:4">
-      <c r="A28" s="7"/>
+      <c r="A28" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="B28" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="13">
-        <v>1500</v>
+        <v>38</v>
+      </c>
+      <c r="C28" s="14">
+        <v>5000</v>
       </c>
       <c r="D28" s="7"/>
     </row>
     <row r="29" ht="19" customHeight="1" spans="1:4">
       <c r="A29" s="7"/>
       <c r="B29" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="13">
-        <v>500</v>
+        <v>39</v>
+      </c>
+      <c r="C29" s="14">
+        <v>3000</v>
       </c>
       <c r="D29" s="7"/>
     </row>
     <row r="30" ht="19" customHeight="1" spans="1:4">
       <c r="A30" s="7"/>
       <c r="B30" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="13">
-        <v>300</v>
+        <v>40</v>
+      </c>
+      <c r="C30" s="14">
+        <v>1500</v>
       </c>
       <c r="D30" s="7"/>
     </row>
     <row r="31" ht="19" customHeight="1" spans="1:4">
       <c r="A31" s="7"/>
       <c r="B31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="13">
-        <v>100</v>
+        <v>41</v>
+      </c>
+      <c r="C31" s="14">
+        <v>500</v>
       </c>
       <c r="D31" s="7"/>
     </row>
-    <row r="32" ht="33" customHeight="1" spans="1:4">
+    <row r="32" ht="19" customHeight="1" spans="1:4">
       <c r="A32" s="7"/>
       <c r="B32" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="13">
+        <v>42</v>
+      </c>
+      <c r="C32" s="14">
+        <v>300</v>
+      </c>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" ht="19" customHeight="1" spans="1:4">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="14">
+        <v>100</v>
+      </c>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" ht="33" customHeight="1" spans="1:4">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="14">
         <v>-500</v>
       </c>
-      <c r="D32" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" ht="25" customHeight="1" spans="1:4">
-      <c r="A33" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" s="7"/>
-    </row>
-    <row r="34" ht="19" customHeight="1" spans="1:4">
-      <c r="A34" s="17"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="7"/>
-    </row>
-    <row r="35" ht="19" customHeight="1" spans="1:4">
-      <c r="A35" s="5" t="s">
+      <c r="D34" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" ht="25" customHeight="1" spans="1:4">
+      <c r="A35" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="16"/>
+      <c r="C35" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" ht="19" customHeight="1" spans="1:4">
+      <c r="A36" s="18"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" ht="19" customHeight="1" spans="1:4">
+      <c r="A37" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B37" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" s="5" t="s">
+      <c r="C37" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="36" ht="19" customHeight="1" spans="1:4">
-      <c r="A36" s="7" t="s">
+    <row r="38" ht="19" customHeight="1" spans="1:4">
+      <c r="A38" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" ht="19" customHeight="1" spans="1:4">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D37" s="7"/>
-    </row>
-    <row r="38" ht="19" customHeight="1" spans="1:4">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="39" ht="19" customHeight="1" spans="1:4">
       <c r="A39" s="7"/>
       <c r="B39" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D39" s="7"/>
     </row>
     <row r="40" ht="19" customHeight="1" spans="1:4">
       <c r="A40" s="7"/>
       <c r="B40" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D40" s="7"/>
     </row>
     <row r="41" ht="19" customHeight="1" spans="1:4">
       <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
+      <c r="B41" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="D41" s="7"/>
     </row>
-    <row r="42" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
-      <c r="A42" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20" t="s">
-        <v>46</v>
-      </c>
+    <row r="42" ht="19" customHeight="1" spans="1:4">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="7"/>
     </row>
     <row r="43" ht="19" customHeight="1" spans="1:4">
       <c r="A43" s="7"/>
-      <c r="B43" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
       <c r="D43" s="7"/>
     </row>
-    <row r="44" ht="19" customHeight="1" spans="1:4">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7" t="s">
+    <row r="44" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
+      <c r="A44" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D44" s="7"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="45" ht="19" customHeight="1" spans="1:4">
       <c r="A45" s="7"/>
       <c r="B45" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="D45" s="7"/>
     </row>
     <row r="46" ht="19" customHeight="1" spans="1:4">
       <c r="A46" s="7"/>
       <c r="B46" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="D46" s="7"/>
     </row>
     <row r="47" ht="19" customHeight="1" spans="1:4">
       <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
+      <c r="B47" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D47" s="7"/>
     </row>
     <row r="48" ht="19" customHeight="1" spans="1:4">
-      <c r="A48" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="D48" s="7"/>
     </row>
     <row r="49" ht="19" customHeight="1" spans="1:4">
       <c r="A49" s="7"/>
-      <c r="B49" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>57</v>
-      </c>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
       <c r="D49" s="7"/>
     </row>
     <row r="50" ht="19" customHeight="1" spans="1:4">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>50</v>
-      </c>
+      <c r="A50" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
       <c r="D50" s="7"/>
     </row>
     <row r="51" ht="19" customHeight="1" spans="1:4">
       <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
+      <c r="B51" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D51" s="7"/>
     </row>
     <row r="52" ht="19" customHeight="1" spans="1:4">
-      <c r="A52" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
+      <c r="A52" s="7"/>
+      <c r="B52" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="D52" s="7"/>
     </row>
     <row r="53" ht="19" customHeight="1" spans="1:4">
       <c r="A53" s="7"/>
-      <c r="B53" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
       <c r="D53" s="7"/>
     </row>
     <row r="54" ht="19" customHeight="1" spans="1:4">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>50</v>
-      </c>
+      <c r="A54" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
       <c r="D54" s="7"/>
     </row>
     <row r="55" ht="19" customHeight="1" spans="1:4">
       <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
+      <c r="B55" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="D55" s="7"/>
     </row>
-    <row r="56" ht="30" customHeight="1" spans="1:4">
-      <c r="A56" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B56" s="21"/>
-      <c r="C56" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D56" s="12"/>
-    </row>
-    <row r="57" ht="23" customHeight="1"/>
-    <row r="58" customFormat="1" ht="40" customHeight="1" spans="1:4">
-      <c r="A58" s="22" t="s">
+    <row r="56" ht="19" customHeight="1" spans="1:4">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7" t="s">
         <v>68</v>
       </c>
+      <c r="C56" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" s="7"/>
+    </row>
+    <row r="57" ht="19" customHeight="1" spans="1:4">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+    </row>
+    <row r="58" ht="30" customHeight="1" spans="1:4">
+      <c r="A58" s="17" t="s">
+        <v>69</v>
+      </c>
       <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-    </row>
-    <row r="59" s="2" customFormat="1" spans="1:4">
-      <c r="A59" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B59" s="23" t="s">
+      <c r="C58" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="D58" s="12"/>
+    </row>
+    <row r="59" ht="23" customHeight="1"/>
+    <row r="60" customFormat="1" ht="40" customHeight="1" spans="1:4">
+      <c r="A60" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="D59" s="18" t="s">
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+    </row>
+    <row r="61" s="2" customFormat="1" spans="1:4">
+      <c r="A61" s="24" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="60" customFormat="1" spans="1:4">
-      <c r="A60" s="16" t="s">
+      <c r="B61" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="B60" s="24" t="s">
+      <c r="C61" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="D61" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="D60" s="24" t="str">
-        <f t="shared" ref="D60:D68" si="0">LEFT(B65,FIND("-",B65)-1)</f>
+    </row>
+    <row r="62" customFormat="1" spans="1:4">
+      <c r="A62" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D62" s="25" t="str">
+        <f t="shared" ref="D62:D70" si="0">LEFT(B67,FIND("-",B67)-1)</f>
         <v>184000</v>
       </c>
     </row>
-    <row r="61" customFormat="1" spans="1:4">
-      <c r="A61" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B61" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D61" s="24" t="str">
+    <row r="63" customFormat="1" spans="1:4">
+      <c r="A63" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D63" s="25" t="str">
         <f t="shared" si="0"/>
         <v>164000</v>
       </c>
     </row>
-    <row r="62" customFormat="1" spans="1:4">
-      <c r="A62" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B62" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D62" s="24" t="str">
+    <row r="64" customFormat="1" spans="1:4">
+      <c r="A64" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" s="25" t="str">
         <f t="shared" si="0"/>
         <v>144000</v>
       </c>
     </row>
-    <row r="63" customFormat="1" spans="1:4">
-      <c r="A63" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B63" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D63" s="24" t="str">
+    <row r="65" customFormat="1" spans="1:4">
+      <c r="A65" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D65" s="25" t="str">
         <f t="shared" si="0"/>
         <v>124000</v>
       </c>
     </row>
-    <row r="64" customFormat="1" spans="1:4">
-      <c r="A64" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B64" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D64" s="24" t="str">
+    <row r="66" customFormat="1" spans="1:4">
+      <c r="A66" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D66" s="25" t="str">
         <f t="shared" si="0"/>
         <v>104000</v>
       </c>
     </row>
-    <row r="65" customFormat="1" spans="1:4">
-      <c r="A65" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="B65" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D65" s="24" t="str">
+    <row r="67" customFormat="1" spans="1:4">
+      <c r="A67" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D67" s="25" t="str">
         <f t="shared" si="0"/>
         <v>99000</v>
       </c>
     </row>
-    <row r="66" customFormat="1" spans="1:4">
-      <c r="A66" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B66" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D66" s="24" t="str">
+    <row r="68" customFormat="1" spans="1:4">
+      <c r="A68" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B68" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D68" s="25" t="str">
         <f t="shared" si="0"/>
         <v>84000</v>
       </c>
     </row>
-    <row r="67" customFormat="1" spans="1:4">
-      <c r="A67" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B67" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D67" s="24" t="str">
+    <row r="69" customFormat="1" spans="1:4">
+      <c r="A69" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B69" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D69" s="25" t="str">
         <f t="shared" si="0"/>
         <v>79000</v>
       </c>
     </row>
-    <row r="68" customFormat="1" spans="1:4">
-      <c r="A68" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B68" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D68" s="24" t="str">
+    <row r="70" customFormat="1" spans="1:4">
+      <c r="A70" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B70" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D70" s="25" t="str">
         <f t="shared" si="0"/>
         <v>64000</v>
       </c>
     </row>
-    <row r="69" customFormat="1" spans="1:4">
-      <c r="A69" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B69" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D69" s="24" t="str">
-        <f>LEFT(B73,FIND("-",B73)-1)</f>
-        <v>64000</v>
-      </c>
-    </row>
-    <row r="70" customFormat="1" spans="1:4">
-      <c r="A70" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="B70" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D70" s="24" t="str">
-        <f>LEFT(B74,FIND("-",B74)-1)</f>
-        <v>54000</v>
-      </c>
-    </row>
     <row r="71" customFormat="1" spans="1:4">
       <c r="A71" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B71" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B71" s="25" t="s">
         <v>99</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D71" s="24" t="str">
-        <f>LEFT(B74,FIND("-",B74)-1)</f>
-        <v>54000</v>
+      <c r="D71" s="25" t="str">
+        <f>LEFT(B75,FIND("-",B75)-1)</f>
+        <v>64000</v>
       </c>
     </row>
     <row r="72" customFormat="1" spans="1:4">
-      <c r="A72" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B72" s="24" t="s">
+      <c r="A72" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B72" s="25" t="s">
         <v>100</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D72" s="24" t="str">
-        <f>LEFT(B75,FIND("-",B75)-1)</f>
-        <v>44000</v>
+      <c r="D72" s="25" t="str">
+        <f>LEFT(B76,FIND("-",B76)-1)</f>
+        <v>54000</v>
       </c>
     </row>
     <row r="73" customFormat="1" spans="1:4">
       <c r="A73" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B73" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B73" s="25" t="s">
         <v>102</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="24" t="str">
-        <f t="shared" ref="D73:D75" si="1">LEFT(B75,FIND("-",B75)-1)</f>
-        <v>44000</v>
+      <c r="D73" s="25" t="str">
+        <f>LEFT(B76,FIND("-",B76)-1)</f>
+        <v>54000</v>
       </c>
     </row>
     <row r="74" customFormat="1" spans="1:4">
-      <c r="A74" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B74" s="24" t="s">
+      <c r="A74" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B74" s="25" t="s">
         <v>103</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D74" s="24" t="str">
+      <c r="D74" s="25" t="str">
+        <f>LEFT(B77,FIND("-",B77)-1)</f>
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="75" customFormat="1" spans="1:4">
+      <c r="A75" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B75" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D75" s="25" t="str">
+        <f t="shared" ref="D75:D77" si="1">LEFT(B77,FIND("-",B77)-1)</f>
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="76" customFormat="1" spans="1:4">
+      <c r="A76" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B76" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D76" s="25" t="str">
         <f t="shared" si="1"/>
         <v>34000</v>
       </c>
     </row>
-    <row r="75" customFormat="1" spans="1:4">
-      <c r="A75" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B75" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D75" s="24" t="str">
+    <row r="77" customFormat="1" spans="1:4">
+      <c r="A77" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B77" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D77" s="25" t="str">
         <f t="shared" si="1"/>
         <v>24000</v>
       </c>
     </row>
-    <row r="76" customFormat="1" spans="1:4">
-      <c r="A76" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B76" s="24" t="s">
+    <row r="78" customFormat="1" spans="1:4">
+      <c r="A78" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C76" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D76" s="24" t="str">
-        <f t="shared" ref="D76:D80" si="2">LEFT(B77,FIND("-",B77)-1)</f>
+      <c r="B78" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D78" s="25" t="str">
+        <f t="shared" ref="D78:D82" si="2">LEFT(B79,FIND("-",B79)-1)</f>
         <v>24000</v>
       </c>
     </row>
-    <row r="77" customFormat="1" spans="1:4">
-      <c r="A77" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B77" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="C77" s="7" t="s">
+    <row r="79" customFormat="1" spans="1:4">
+      <c r="A79" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D77" s="24" t="str">
+      <c r="B79" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D79" s="25" t="str">
         <f t="shared" si="2"/>
         <v>19000</v>
       </c>
     </row>
-    <row r="78" customFormat="1" spans="1:4">
-      <c r="A78" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="B78" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D78" s="24" t="str">
+    <row r="80" customFormat="1" spans="1:4">
+      <c r="A80" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B80" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D80" s="25" t="str">
         <f t="shared" si="2"/>
         <v>14000</v>
       </c>
     </row>
-    <row r="79" customFormat="1" spans="1:4">
-      <c r="A79" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B79" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D79" s="24" t="str">
+    <row r="81" customFormat="1" spans="1:4">
+      <c r="A81" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B81" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D81" s="25" t="str">
         <f t="shared" si="2"/>
         <v>9000</v>
       </c>
     </row>
-    <row r="80" customFormat="1" spans="1:4">
-      <c r="A80" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B80" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D80" s="24" t="str">
+    <row r="82" customFormat="1" spans="1:4">
+      <c r="A82" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B82" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D82" s="25" t="str">
         <f t="shared" si="2"/>
         <v>7000</v>
       </c>
     </row>
-    <row r="81" customFormat="1" spans="1:4">
-      <c r="A81" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="B81" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D81" s="24" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="82" customFormat="1" spans="1:4">
-      <c r="A82" s="7" t="s">
+    <row r="83" customFormat="1" spans="1:4">
+      <c r="A83" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="B82" s="24" t="s">
+      <c r="B83" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C83" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D82" s="24" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="83" customFormat="1" spans="1:4">
-      <c r="A83" s="7" t="s">
+      <c r="D83" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="B83" s="25" t="s">
+    </row>
+    <row r="84" customFormat="1" spans="1:4">
+      <c r="A84" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="B84" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D84" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="D83" s="24" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="84" customFormat="1" spans="2:2">
-      <c r="B84" s="26"/>
+    </row>
+    <row r="85" customFormat="1" spans="1:4">
+      <c r="A85" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B85" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D85" s="25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="86" customFormat="1" spans="2:2">
+      <c r="B86" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A60:D60"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/sales/protected/commands/template/readexcel.xlsx
+++ b/sales/protected/commands/template/readexcel.xlsx
@@ -404,10 +404,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -489,14 +489,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -510,6 +503,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -532,6 +541,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -540,7 +572,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -555,28 +618,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -584,49 +625,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -647,37 +647,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,139 +827,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,15 +874,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -904,22 +895,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -939,6 +925,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -953,172 +968,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1193,9 +1193,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1527,8 +1524,8 @@
   <sheetPr/>
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1574,7 +1571,7 @@
       <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="27" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="8"/>
@@ -1584,7 +1581,7 @@
       <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="27" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="8"/>
@@ -1594,7 +1591,7 @@
       <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="27" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="8"/>
@@ -1604,7 +1601,7 @@
       <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="27" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="8"/>
@@ -2021,7 +2018,7 @@
         <v>65</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D52" s="7"/>
     </row>
@@ -2102,13 +2099,13 @@
       <c r="A62" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B62" s="25" t="s">
+      <c r="B62" s="13" t="s">
         <v>77</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D62" s="25" t="str">
+      <c r="D62" s="13" t="str">
         <f t="shared" ref="D62:D70" si="0">LEFT(B67,FIND("-",B67)-1)</f>
         <v>184000</v>
       </c>
@@ -2117,13 +2114,13 @@
       <c r="A63" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B63" s="25" t="s">
+      <c r="B63" s="13" t="s">
         <v>80</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D63" s="25" t="str">
+      <c r="D63" s="13" t="str">
         <f t="shared" si="0"/>
         <v>164000</v>
       </c>
@@ -2132,13 +2129,13 @@
       <c r="A64" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B64" s="25" t="s">
+      <c r="B64" s="13" t="s">
         <v>83</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D64" s="25" t="str">
+      <c r="D64" s="13" t="str">
         <f t="shared" si="0"/>
         <v>144000</v>
       </c>
@@ -2147,13 +2144,13 @@
       <c r="A65" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B65" s="25" t="s">
+      <c r="B65" s="13" t="s">
         <v>86</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D65" s="25" t="str">
+      <c r="D65" s="13" t="str">
         <f t="shared" si="0"/>
         <v>124000</v>
       </c>
@@ -2162,13 +2159,13 @@
       <c r="A66" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B66" s="25" t="s">
+      <c r="B66" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D66" s="25" t="str">
+      <c r="D66" s="13" t="str">
         <f t="shared" si="0"/>
         <v>104000</v>
       </c>
@@ -2177,13 +2174,13 @@
       <c r="A67" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="B67" s="25" t="s">
+      <c r="B67" s="13" t="s">
         <v>91</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D67" s="25" t="str">
+      <c r="D67" s="13" t="str">
         <f t="shared" si="0"/>
         <v>99000</v>
       </c>
@@ -2192,13 +2189,13 @@
       <c r="A68" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B68" s="25" t="s">
+      <c r="B68" s="13" t="s">
         <v>93</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D68" s="25" t="str">
+      <c r="D68" s="13" t="str">
         <f t="shared" si="0"/>
         <v>84000</v>
       </c>
@@ -2207,13 +2204,13 @@
       <c r="A69" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B69" s="25" t="s">
+      <c r="B69" s="13" t="s">
         <v>95</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D69" s="25" t="str">
+      <c r="D69" s="13" t="str">
         <f t="shared" si="0"/>
         <v>79000</v>
       </c>
@@ -2222,13 +2219,13 @@
       <c r="A70" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B70" s="25" t="s">
+      <c r="B70" s="13" t="s">
         <v>97</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D70" s="25" t="str">
+      <c r="D70" s="13" t="str">
         <f t="shared" si="0"/>
         <v>64000</v>
       </c>
@@ -2237,13 +2234,13 @@
       <c r="A71" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B71" s="25" t="s">
+      <c r="B71" s="13" t="s">
         <v>99</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D71" s="25" t="str">
+      <c r="D71" s="13" t="str">
         <f>LEFT(B75,FIND("-",B75)-1)</f>
         <v>64000</v>
       </c>
@@ -2252,13 +2249,13 @@
       <c r="A72" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="B72" s="25" t="s">
+      <c r="B72" s="13" t="s">
         <v>100</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D72" s="25" t="str">
+      <c r="D72" s="13" t="str">
         <f>LEFT(B76,FIND("-",B76)-1)</f>
         <v>54000</v>
       </c>
@@ -2267,13 +2264,13 @@
       <c r="A73" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B73" s="25" t="s">
+      <c r="B73" s="13" t="s">
         <v>102</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="25" t="str">
+      <c r="D73" s="13" t="str">
         <f>LEFT(B76,FIND("-",B76)-1)</f>
         <v>54000</v>
       </c>
@@ -2282,13 +2279,13 @@
       <c r="A74" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B74" s="25" t="s">
+      <c r="B74" s="13" t="s">
         <v>103</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D74" s="25" t="str">
+      <c r="D74" s="13" t="str">
         <f>LEFT(B77,FIND("-",B77)-1)</f>
         <v>44000</v>
       </c>
@@ -2297,13 +2294,13 @@
       <c r="A75" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B75" s="25" t="s">
+      <c r="B75" s="13" t="s">
         <v>105</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D75" s="25" t="str">
+      <c r="D75" s="13" t="str">
         <f t="shared" ref="D75:D77" si="1">LEFT(B77,FIND("-",B77)-1)</f>
         <v>44000</v>
       </c>
@@ -2312,13 +2309,13 @@
       <c r="A76" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="B76" s="25" t="s">
+      <c r="B76" s="13" t="s">
         <v>106</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D76" s="25" t="str">
+      <c r="D76" s="13" t="str">
         <f t="shared" si="1"/>
         <v>34000</v>
       </c>
@@ -2327,13 +2324,13 @@
       <c r="A77" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B77" s="25" t="s">
+      <c r="B77" s="13" t="s">
         <v>108</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D77" s="25" t="str">
+      <c r="D77" s="13" t="str">
         <f t="shared" si="1"/>
         <v>24000</v>
       </c>
@@ -2342,13 +2339,13 @@
       <c r="A78" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B78" s="25" t="s">
+      <c r="B78" s="13" t="s">
         <v>110</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D78" s="25" t="str">
+      <c r="D78" s="13" t="str">
         <f t="shared" ref="D78:D82" si="2">LEFT(B79,FIND("-",B79)-1)</f>
         <v>24000</v>
       </c>
@@ -2357,13 +2354,13 @@
       <c r="A79" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B79" s="25" t="s">
+      <c r="B79" s="13" t="s">
         <v>111</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D79" s="25" t="str">
+      <c r="D79" s="13" t="str">
         <f t="shared" si="2"/>
         <v>19000</v>
       </c>
@@ -2372,13 +2369,13 @@
       <c r="A80" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="B80" s="25" t="s">
+      <c r="B80" s="13" t="s">
         <v>113</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D80" s="25" t="str">
+      <c r="D80" s="13" t="str">
         <f t="shared" si="2"/>
         <v>14000</v>
       </c>
@@ -2387,13 +2384,13 @@
       <c r="A81" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B81" s="25" t="s">
+      <c r="B81" s="13" t="s">
         <v>115</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D81" s="25" t="str">
+      <c r="D81" s="13" t="str">
         <f t="shared" si="2"/>
         <v>9000</v>
       </c>
@@ -2402,13 +2399,13 @@
       <c r="A82" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B82" s="25" t="s">
+      <c r="B82" s="13" t="s">
         <v>117</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D82" s="25" t="str">
+      <c r="D82" s="13" t="str">
         <f t="shared" si="2"/>
         <v>7000</v>
       </c>
@@ -2417,13 +2414,13 @@
       <c r="A83" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="B83" s="25" t="s">
+      <c r="B83" s="13" t="s">
         <v>119</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D83" s="25" t="s">
+      <c r="D83" s="13" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2431,13 +2428,13 @@
       <c r="A84" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B84" s="25" t="s">
+      <c r="B84" s="13" t="s">
         <v>122</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D84" s="25" t="s">
+      <c r="D84" s="13" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2445,18 +2442,18 @@
       <c r="A85" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B85" s="26" t="s">
+      <c r="B85" s="25" t="s">
         <v>124</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D85" s="25" t="s">
+      <c r="D85" s="13" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="86" customFormat="1" spans="2:2">
-      <c r="B86" s="27"/>
+      <c r="B86" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/sales/protected/commands/template/readexcel.xlsx
+++ b/sales/protected/commands/template/readexcel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="138">
   <si>
     <t>销售段位得分规则</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>销售每月IA，IB签单金额</t>
-  </si>
-  <si>
-    <t xml:space="preserve">年金额 </t>
   </si>
   <si>
     <t xml:space="preserve">如果年金额在30000以下，
@@ -83,6 +80,9 @@
     <t>销售每月飘盈香签单金额</t>
   </si>
   <si>
+    <t xml:space="preserve">年金额 </t>
+  </si>
+  <si>
     <t>年金额 * 0.3 * (1+0.02*（(B)-1）)= 得分</t>
   </si>
   <si>
@@ -170,9 +170,6 @@
     <t>当月项目对应得分倍数</t>
   </si>
   <si>
-    <t>最后总分数乘这个项目</t>
-  </si>
-  <si>
     <t>得分 * 0.8</t>
   </si>
   <si>
@@ -228,6 +225,48 @@
   </si>
   <si>
     <t>销售副经理以下</t>
+  </si>
+  <si>
+    <t>城市规模级别</t>
+  </si>
+  <si>
+    <t>地方年生意额=去年12个月生意额的总和</t>
+  </si>
+  <si>
+    <t>级别1,地方年生意额≤2400,000</t>
+  </si>
+  <si>
+    <t>得分 * 1.3</t>
+  </si>
+  <si>
+    <t>级别2,地方年生意额≤7200,000</t>
+  </si>
+  <si>
+    <t>级别3,地方年生意额≤14,400,000</t>
+  </si>
+  <si>
+    <t>级别4,地方年生意额≤24,400,000</t>
+  </si>
+  <si>
+    <t>级别5,地方年生意额≤36,400,000</t>
+  </si>
+  <si>
+    <t>级别6,地方年生意额≤64,800,000</t>
+  </si>
+  <si>
+    <t>得分 * 0.95</t>
+  </si>
+  <si>
+    <t>级别7,地方年生意额≤98,400,000</t>
+  </si>
+  <si>
+    <t>得分 * 0.90</t>
+  </si>
+  <si>
+    <t>级别8,地方年生意额＞98,400,000</t>
+  </si>
+  <si>
+    <t>得分 * 0.85</t>
   </si>
   <si>
     <t>当月所有得分乘以倍数后</t>
@@ -255,7 +294,7 @@
     <t>珍爱1段</t>
   </si>
   <si>
-    <t>344000或以上</t>
+    <t>364000或以上</t>
   </si>
   <si>
     <t>钻石1段</t>
@@ -264,7 +303,7 @@
     <t>珍爱2段</t>
   </si>
   <si>
-    <t>309000-343999</t>
+    <t>329000-363999</t>
   </si>
   <si>
     <t>钻石2段</t>
@@ -273,7 +312,7 @@
     <t>珍爱3段</t>
   </si>
   <si>
-    <t>274000-308999</t>
+    <t>294000-328999</t>
   </si>
   <si>
     <t>钻石3段</t>
@@ -282,7 +321,7 @@
     <t>珍爱4段</t>
   </si>
   <si>
-    <t>239000-273999</t>
+    <t>259000-293999</t>
   </si>
   <si>
     <t>钻石4段</t>
@@ -291,49 +330,49 @@
     <t>珍爱5段</t>
   </si>
   <si>
-    <t>204000-238999</t>
+    <t>224000-258999</t>
   </si>
   <si>
     <t>钻石5段</t>
   </si>
   <si>
+    <t>204000-223999</t>
+  </si>
+  <si>
+    <t>铂金1段</t>
+  </si>
+  <si>
     <t>184000-203999</t>
   </si>
   <si>
-    <t>铂金1段</t>
+    <t>铂金2段</t>
   </si>
   <si>
     <t>164000-183999</t>
   </si>
   <si>
-    <t>铂金2段</t>
-  </si>
-  <si>
-    <t>144000-163999</t>
-  </si>
-  <si>
     <t>铂金3段</t>
   </si>
   <si>
+    <t>144000-143999</t>
+  </si>
+  <si>
+    <t>铂金4段</t>
+  </si>
+  <si>
     <t>124000-143999</t>
   </si>
   <si>
-    <t>铂金4段</t>
-  </si>
-  <si>
-    <t>104000-123999</t>
-  </si>
-  <si>
-    <t>99000-103999</t>
+    <t>109000-123999</t>
   </si>
   <si>
     <t>黄金1段</t>
   </si>
   <si>
-    <t>84000-98999</t>
-  </si>
-  <si>
-    <t>79000-83999</t>
+    <t>94000-108999</t>
+  </si>
+  <si>
+    <t>79000-93999</t>
   </si>
   <si>
     <t>黄金2段</t>
@@ -489,7 +528,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -504,6 +612,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -520,51 +636,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -593,38 +664,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -647,55 +686,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,12 +824,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -768,42 +843,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -871,11 +910,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -895,17 +964,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -933,41 +1007,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -976,10 +1015,10 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -988,137 +1027,137 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1183,6 +1222,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1522,16 +1567,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
-    <col min="2" max="2" width="27.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="35.375" customWidth="1"/>
     <col min="3" max="3" width="47" customWidth="1"/>
     <col min="4" max="4" width="37.1083333333333" customWidth="1"/>
   </cols>
@@ -1571,7 +1616,7 @@
       <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="29" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="8"/>
@@ -1581,7 +1626,7 @@
       <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="29" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="8"/>
@@ -1591,7 +1636,7 @@
       <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="29" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="8"/>
@@ -1601,7 +1646,7 @@
       <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="29" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="8"/>
@@ -1624,17 +1669,15 @@
       <c r="A11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>17</v>
       </c>
       <c r="D11" s="7"/>
     </row>
     <row r="12" customFormat="1" ht="19" customHeight="1" spans="1:4">
       <c r="A12" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1642,10 +1685,10 @@
     </row>
     <row r="13" customFormat="1" ht="19" customHeight="1" spans="1:4">
       <c r="A13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>20</v>
@@ -1888,9 +1931,7 @@
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
-      <c r="D38" s="7" t="s">
-        <v>49</v>
-      </c>
+      <c r="D38" s="7"/>
     </row>
     <row r="39" ht="19" customHeight="1" spans="1:4">
       <c r="A39" s="7"/>
@@ -1898,7 +1939,7 @@
         <v>6</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D39" s="7"/>
     </row>
@@ -1908,7 +1949,7 @@
         <v>8</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D40" s="7"/>
     </row>
@@ -1918,7 +1959,7 @@
         <v>10</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D41" s="7"/>
     </row>
@@ -1928,7 +1969,7 @@
         <v>12</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D42" s="7"/>
     </row>
@@ -1940,51 +1981,49 @@
     </row>
     <row r="44" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
       <c r="A44" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
-      <c r="D44" s="21" t="s">
-        <v>49</v>
-      </c>
+      <c r="D44" s="21"/>
     </row>
     <row r="45" ht="19" customHeight="1" spans="1:4">
       <c r="A45" s="7"/>
       <c r="B45" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="D45" s="7"/>
     </row>
     <row r="46" ht="19" customHeight="1" spans="1:4">
       <c r="A46" s="7"/>
       <c r="B46" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="D46" s="7"/>
     </row>
     <row r="47" ht="19" customHeight="1" spans="1:4">
       <c r="A47" s="7"/>
       <c r="B47" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="D47" s="7"/>
     </row>
     <row r="48" ht="19" customHeight="1" spans="1:4">
       <c r="A48" s="7"/>
       <c r="B48" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="D48" s="7"/>
     </row>
@@ -1996,7 +2035,7 @@
     </row>
     <row r="50" ht="19" customHeight="1" spans="1:4">
       <c r="A50" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -2005,20 +2044,20 @@
     <row r="51" ht="19" customHeight="1" spans="1:4">
       <c r="A51" s="7"/>
       <c r="B51" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D51" s="7"/>
     </row>
     <row r="52" ht="19" customHeight="1" spans="1:4">
       <c r="A52" s="7"/>
       <c r="B52" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D52" s="7"/>
     </row>
@@ -2030,7 +2069,7 @@
     </row>
     <row r="54" ht="19" customHeight="1" spans="1:4">
       <c r="A54" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -2039,20 +2078,20 @@
     <row r="55" ht="19" customHeight="1" spans="1:4">
       <c r="A55" s="7"/>
       <c r="B55" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D55" s="7"/>
     </row>
     <row r="56" ht="19" customHeight="1" spans="1:4">
       <c r="A56" s="7"/>
       <c r="B56" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D56" s="7"/>
     </row>
@@ -2062,232 +2101,178 @@
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
     </row>
-    <row r="58" ht="30" customHeight="1" spans="1:4">
-      <c r="A58" s="17" t="s">
+    <row r="58" ht="20" customHeight="1" spans="1:4">
+      <c r="A58" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B58" s="22"/>
-      <c r="C58" s="17" t="s">
+    </row>
+    <row r="59" ht="19" customHeight="1" spans="1:4">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D58" s="12"/>
-    </row>
-    <row r="59" ht="23" customHeight="1"/>
-    <row r="60" customFormat="1" ht="40" customHeight="1" spans="1:4">
-      <c r="A60" s="23" t="s">
+      <c r="C59" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B60" s="23"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
-    </row>
-    <row r="61" s="2" customFormat="1" spans="1:4">
-      <c r="A61" s="24" t="s">
+      <c r="D59" s="23"/>
+    </row>
+    <row r="60" ht="19" customHeight="1" spans="1:4">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B61" s="24" t="s">
+      <c r="C60" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D60" s="7"/>
+    </row>
+    <row r="61" ht="19" customHeight="1" spans="1:4">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C61" s="19" t="s">
+      <c r="C61" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D61" s="7"/>
+    </row>
+    <row r="62" ht="19" customHeight="1" spans="1:4">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D61" s="19" t="s">
+      <c r="C62" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D62" s="7"/>
+    </row>
+    <row r="63" ht="19" customHeight="1" spans="1:4">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="62" customFormat="1" spans="1:4">
-      <c r="A62" s="17" t="s">
+      <c r="C63" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D63" s="7"/>
+    </row>
+    <row r="64" ht="19" customHeight="1" spans="1:4">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B62" s="13" t="s">
+      <c r="C64" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="D64" s="7"/>
+    </row>
+    <row r="65" ht="19" customHeight="1" spans="1:4">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D62" s="13" t="str">
-        <f t="shared" ref="D62:D70" si="0">LEFT(B67,FIND("-",B67)-1)</f>
+      <c r="C65" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D65" s="7"/>
+    </row>
+    <row r="66" ht="19" customHeight="1" spans="1:4">
+      <c r="A66" s="7"/>
+      <c r="B66" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D66" s="7"/>
+    </row>
+    <row r="67" ht="19" customHeight="1" spans="1:4">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+    </row>
+    <row r="68" ht="30" customHeight="1" spans="1:4">
+      <c r="A68" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68" s="24"/>
+      <c r="C68" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D68" s="12"/>
+    </row>
+    <row r="69" ht="23" customHeight="1"/>
+    <row r="70" customFormat="1" ht="40" customHeight="1" spans="1:4">
+      <c r="A70" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
+    </row>
+    <row r="71" s="2" customFormat="1" spans="1:4">
+      <c r="A71" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" customFormat="1" spans="1:4">
+      <c r="A72" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D72" s="13" t="str">
+        <f t="shared" ref="D72:D80" si="0">LEFT(B77,FIND("-",B77)-1)</f>
+        <v>204000</v>
+      </c>
+    </row>
+    <row r="73" customFormat="1" spans="1:4">
+      <c r="A73" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D73" s="13" t="str">
+        <f t="shared" si="0"/>
         <v>184000</v>
       </c>
     </row>
-    <row r="63" customFormat="1" spans="1:4">
-      <c r="A63" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D63" s="13" t="str">
+    <row r="74" customFormat="1" spans="1:4">
+      <c r="A74" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D74" s="13" t="str">
         <f t="shared" si="0"/>
         <v>164000</v>
-      </c>
-    </row>
-    <row r="64" customFormat="1" spans="1:4">
-      <c r="A64" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D64" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>144000</v>
-      </c>
-    </row>
-    <row r="65" customFormat="1" spans="1:4">
-      <c r="A65" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D65" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>124000</v>
-      </c>
-    </row>
-    <row r="66" customFormat="1" spans="1:4">
-      <c r="A66" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D66" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>104000</v>
-      </c>
-    </row>
-    <row r="67" customFormat="1" spans="1:4">
-      <c r="A67" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D67" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>99000</v>
-      </c>
-    </row>
-    <row r="68" customFormat="1" spans="1:4">
-      <c r="A68" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B68" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D68" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>84000</v>
-      </c>
-    </row>
-    <row r="69" customFormat="1" spans="1:4">
-      <c r="A69" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B69" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D69" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>79000</v>
-      </c>
-    </row>
-    <row r="70" customFormat="1" spans="1:4">
-      <c r="A70" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D70" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>64000</v>
-      </c>
-    </row>
-    <row r="71" customFormat="1" spans="1:4">
-      <c r="A71" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D71" s="13" t="str">
-        <f>LEFT(B75,FIND("-",B75)-1)</f>
-        <v>64000</v>
-      </c>
-    </row>
-    <row r="72" customFormat="1" spans="1:4">
-      <c r="A72" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D72" s="13" t="str">
-        <f>LEFT(B76,FIND("-",B76)-1)</f>
-        <v>54000</v>
-      </c>
-    </row>
-    <row r="73" customFormat="1" spans="1:4">
-      <c r="A73" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B73" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D73" s="13" t="str">
-        <f>LEFT(B76,FIND("-",B76)-1)</f>
-        <v>54000</v>
-      </c>
-    </row>
-    <row r="74" customFormat="1" spans="1:4">
-      <c r="A74" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B74" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D74" s="13" t="str">
-        <f>LEFT(B77,FIND("-",B77)-1)</f>
-        <v>44000</v>
       </c>
     </row>
     <row r="75" customFormat="1" spans="1:4">
@@ -2295,169 +2280,319 @@
         <v>98</v>
       </c>
       <c r="B75" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D75" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>144000</v>
+      </c>
+    </row>
+    <row r="76" customFormat="1" spans="1:4">
+      <c r="A76" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D76" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>124000</v>
+      </c>
+    </row>
+    <row r="77" customFormat="1" spans="1:4">
+      <c r="A77" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C77" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C75" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D75" s="13" t="str">
-        <f t="shared" ref="D75:D77" si="1">LEFT(B77,FIND("-",B77)-1)</f>
+      <c r="D77" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>109000</v>
+      </c>
+    </row>
+    <row r="78" customFormat="1" spans="1:4">
+      <c r="A78" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D78" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>94000</v>
+      </c>
+    </row>
+    <row r="79" customFormat="1" spans="1:4">
+      <c r="A79" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D79" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>79000</v>
+      </c>
+    </row>
+    <row r="80" customFormat="1" spans="1:4">
+      <c r="A80" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D80" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="81" customFormat="1" spans="1:4">
+      <c r="A81" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D81" s="13" t="str">
+        <f>LEFT(B85,FIND("-",B85)-1)</f>
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="82" customFormat="1" spans="1:4">
+      <c r="A82" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D82" s="13" t="str">
+        <f>LEFT(B86,FIND("-",B86)-1)</f>
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="83" customFormat="1" spans="1:4">
+      <c r="A83" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D83" s="13" t="str">
+        <f>LEFT(B86,FIND("-",B86)-1)</f>
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="84" customFormat="1" spans="1:4">
+      <c r="A84" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D84" s="13" t="str">
+        <f>LEFT(B87,FIND("-",B87)-1)</f>
         <v>44000</v>
       </c>
     </row>
-    <row r="76" customFormat="1" spans="1:4">
-      <c r="A76" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D76" s="13" t="str">
+    <row r="85" customFormat="1" spans="1:4">
+      <c r="A85" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D85" s="13" t="str">
+        <f t="shared" ref="D85:D87" si="1">LEFT(B87,FIND("-",B87)-1)</f>
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="86" customFormat="1" spans="1:4">
+      <c r="A86" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D86" s="13" t="str">
         <f t="shared" si="1"/>
         <v>34000</v>
       </c>
     </row>
-    <row r="77" customFormat="1" spans="1:4">
-      <c r="A77" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B77" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D77" s="13" t="str">
+    <row r="87" customFormat="1" spans="1:4">
+      <c r="A87" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D87" s="13" t="str">
         <f t="shared" si="1"/>
         <v>24000</v>
       </c>
     </row>
-    <row r="78" customFormat="1" spans="1:4">
-      <c r="A78" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B78" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D78" s="13" t="str">
-        <f t="shared" ref="D78:D82" si="2">LEFT(B79,FIND("-",B79)-1)</f>
+    <row r="88" customFormat="1" spans="1:4">
+      <c r="A88" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D88" s="13" t="str">
+        <f t="shared" ref="D88:D92" si="2">LEFT(B89,FIND("-",B89)-1)</f>
         <v>24000</v>
       </c>
     </row>
-    <row r="79" customFormat="1" spans="1:4">
-      <c r="A79" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B79" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D79" s="13" t="str">
+    <row r="89" customFormat="1" spans="1:4">
+      <c r="A89" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D89" s="13" t="str">
         <f t="shared" si="2"/>
         <v>19000</v>
       </c>
     </row>
-    <row r="80" customFormat="1" spans="1:4">
-      <c r="A80" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="B80" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D80" s="13" t="str">
+    <row r="90" customFormat="1" spans="1:4">
+      <c r="A90" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D90" s="13" t="str">
         <f t="shared" si="2"/>
         <v>14000</v>
       </c>
     </row>
-    <row r="81" customFormat="1" spans="1:4">
-      <c r="A81" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B81" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D81" s="13" t="str">
+    <row r="91" customFormat="1" spans="1:4">
+      <c r="A91" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D91" s="13" t="str">
         <f t="shared" si="2"/>
         <v>9000</v>
       </c>
     </row>
-    <row r="82" customFormat="1" spans="1:4">
-      <c r="A82" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B82" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D82" s="13" t="str">
+    <row r="92" customFormat="1" spans="1:4">
+      <c r="A92" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D92" s="13" t="str">
         <f t="shared" si="2"/>
         <v>7000</v>
       </c>
     </row>
-    <row r="83" customFormat="1" spans="1:4">
-      <c r="A83" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="B83" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D83" s="13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="84" customFormat="1" spans="1:4">
-      <c r="A84" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B84" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D84" s="13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="85" customFormat="1" spans="1:4">
-      <c r="A85" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B85" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D85" s="13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="86" customFormat="1" spans="2:2">
-      <c r="B86" s="26"/>
+    <row r="93" customFormat="1" spans="1:4">
+      <c r="A93" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D93" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="94" customFormat="1" spans="1:4">
+      <c r="A94" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D94" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="95" customFormat="1" spans="1:4">
+      <c r="A95" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B95" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D95" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="96" customFormat="1" spans="2:2">
+      <c r="B96" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A70:D70"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/sales/protected/commands/template/readexcel.xlsx
+++ b/sales/protected/commands/template/readexcel.xlsx
@@ -65,9 +65,9 @@
   </si>
   <si>
     <t xml:space="preserve">如果年金额在30000以下，
-- 年金额 * 0.025 * (1+0.01*（(A)-1）) = 得分
+- 年金额 * 0.05 * (1+0.01*（(A)-1）) = 得分
 如果年金额在60000以下，
-- 年金额 * 0.05 * (1+0.01*（(A)-1）) = 得分  
+- 年金额 * 0.08 * (1+0.01*（(A)-1）) = 得分  
 如果年金额在120000以下
 - 年金额 * 0.1 * (1+0.01*（(A)-1）) = 得分  
 如果年金额在120000以上
@@ -528,7 +528,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -551,7 +589,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -565,14 +632,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -581,20 +640,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -619,51 +664,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -686,6 +686,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -710,25 +740,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,18 +830,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -777,72 +843,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,6 +910,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -930,56 +945,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1007,6 +972,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1015,10 +1015,10 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1027,137 +1027,137 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1222,12 +1222,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1570,7 +1564,7 @@
   <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1616,7 +1610,7 @@
       <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="27" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="8"/>
@@ -1626,7 +1620,7 @@
       <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="27" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="8"/>
@@ -1636,7 +1630,7 @@
       <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="27" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="8"/>
@@ -1646,7 +1640,7 @@
       <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="27" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="8"/>
@@ -2107,7 +2101,7 @@
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
-      <c r="D58" s="22" t="s">
+      <c r="D58" s="12" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2119,7 +2113,7 @@
       <c r="C59" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D59" s="23"/>
+      <c r="D59" s="7"/>
     </row>
     <row r="60" ht="19" customHeight="1" spans="1:4">
       <c r="A60" s="7"/>
@@ -2201,7 +2195,7 @@
       <c r="A68" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B68" s="24"/>
+      <c r="B68" s="22"/>
       <c r="C68" s="17" t="s">
         <v>83</v>
       </c>
@@ -2209,18 +2203,18 @@
     </row>
     <row r="69" ht="23" customHeight="1"/>
     <row r="70" customFormat="1" ht="40" customHeight="1" spans="1:4">
-      <c r="A70" s="25" t="s">
+      <c r="A70" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="B70" s="25"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
     </row>
     <row r="71" s="2" customFormat="1" spans="1:4">
-      <c r="A71" s="26" t="s">
+      <c r="A71" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="B71" s="26" t="s">
+      <c r="B71" s="24" t="s">
         <v>86</v>
       </c>
       <c r="C71" s="19" t="s">
@@ -2577,7 +2571,7 @@
       <c r="A95" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B95" s="27" t="s">
+      <c r="B95" s="25" t="s">
         <v>137</v>
       </c>
       <c r="C95" s="7" t="s">
@@ -2588,7 +2582,7 @@
       </c>
     </row>
     <row r="96" customFormat="1" spans="2:2">
-      <c r="B96" s="28"/>
+      <c r="B96" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/sales/protected/commands/template/readexcel.xlsx
+++ b/sales/protected/commands/template/readexcel.xlsx
@@ -25,7 +25,7 @@
     <t>准则</t>
   </si>
   <si>
-    <t>当月项目对应得分及算法</t>
+    <t>当月项目对应战斗值及算法</t>
   </si>
   <si>
     <t>备注</t>
@@ -161,13 +161,13 @@
     <t>例如总有效销售人数为80人，最后8人需要扣500</t>
   </si>
   <si>
-    <t>当月所有得分</t>
-  </si>
-  <si>
-    <t>以上所有分数相加，得到当月所有得分</t>
-  </si>
-  <si>
-    <t>当月项目对应得分倍数</t>
+    <t>当月所有战斗值</t>
+  </si>
+  <si>
+    <t>以上所有战斗值相加，得到当月所有战斗值</t>
+  </si>
+  <si>
+    <t>当月项目对应战斗值倍数</t>
   </si>
   <si>
     <t>得分 * 0.8</t>
@@ -269,26 +269,26 @@
     <t>得分 * 0.85</t>
   </si>
   <si>
-    <t>当月所有得分乘以倍数后</t>
-  </si>
-  <si>
-    <t>当月所有得分*以上所有倍数，得到今月应得分数</t>
-  </si>
-  <si>
-    <t>段位分数要求及新赛季继承段位和继承分数规则如下：
-（因段位会每一个赛季清空一次段位，每两月为一个赛季。新赛季的段位和分数，取上赛季最终段位对应的新赛季段位和新赛季后分数）</t>
+    <t>当月所有战斗值乘以倍数后</t>
+  </si>
+  <si>
+    <t>当月所有战斗值*以上所有倍数，得到今月战斗值</t>
+  </si>
+  <si>
+    <t>段位战斗值要求及新赛季继承段位和继承战斗值规则如下：
+（因段位会每一个赛季清空一次段位，每两月为一个赛季。新赛季的段位和战斗值，取上赛季最终段位对应的新赛季段位和新赛季后战斗值）</t>
   </si>
   <si>
     <t>等级</t>
   </si>
   <si>
-    <t>所需要分数</t>
+    <t>所需要战斗值</t>
   </si>
   <si>
     <t>新赛季继承段位</t>
   </si>
   <si>
-    <t>新赛季继承分数</t>
+    <t>新赛季继承战斗值</t>
   </si>
   <si>
     <t>珍爱1段</t>
@@ -372,61 +372,61 @@
     <t>94000-108999</t>
   </si>
   <si>
+    <t>黄金2段</t>
+  </si>
+  <si>
     <t>79000-93999</t>
   </si>
   <si>
-    <t>黄金2段</t>
+    <t>黄金3段</t>
   </si>
   <si>
     <t>64000-78999</t>
   </si>
   <si>
+    <t>黄金4段</t>
+  </si>
+  <si>
     <t>54000-63999</t>
   </si>
   <si>
-    <t>黄金3段</t>
+    <t>白银1段</t>
   </si>
   <si>
     <t>44000-53999</t>
   </si>
   <si>
-    <t>黄金4段</t>
+    <t>白银2段</t>
   </si>
   <si>
     <t>34000-43999</t>
   </si>
   <si>
+    <t>白银3段</t>
+  </si>
+  <si>
     <t>24000-33999</t>
   </si>
   <si>
-    <t>白银1段</t>
-  </si>
-  <si>
     <t>19000-23999</t>
   </si>
   <si>
-    <t>白银2段</t>
+    <t>青铜1段</t>
   </si>
   <si>
     <t>14000-18999</t>
   </si>
   <si>
-    <t>白银3段</t>
+    <t>青铜2段</t>
   </si>
   <si>
     <t>9000-13999</t>
   </si>
   <si>
-    <t>青铜1段</t>
-  </si>
-  <si>
     <t>7000-8999</t>
   </si>
   <si>
-    <t>按上赛季多少分就多少分</t>
-  </si>
-  <si>
-    <t>青铜2段</t>
+    <t>按上赛季多少战斗值就继承多少战斗值</t>
   </si>
   <si>
     <t>5000-6999</t>
@@ -443,10 +443,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -528,7 +528,91 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -542,6 +626,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -549,127 +670,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -686,145 +686,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,16 +911,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -936,6 +936,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -964,26 +973,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1012,148 +1012,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1564,7 +1564,7 @@
   <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2397,11 +2397,10 @@
         <v>115</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D83" s="13" t="str">
-        <f>LEFT(B86,FIND("-",B86)-1)</f>
-        <v>54000</v>
+        <v>116</v>
+      </c>
+      <c r="D83" s="25">
+        <v>44000</v>
       </c>
     </row>
     <row r="84" customFormat="1" spans="1:4">
@@ -2409,14 +2408,13 @@
         <v>109</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D84" s="13" t="str">
-        <f>LEFT(B87,FIND("-",B87)-1)</f>
-        <v>44000</v>
+        <v>118</v>
+      </c>
+      <c r="D84" s="25">
+        <v>34000</v>
       </c>
     </row>
     <row r="85" customFormat="1" spans="1:4">
@@ -2424,14 +2422,13 @@
         <v>111</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D85" s="13" t="str">
-        <f t="shared" ref="D85:D87" si="1">LEFT(B87,FIND("-",B87)-1)</f>
-        <v>44000</v>
+        <v>120</v>
+      </c>
+      <c r="D85" s="25">
+        <v>24000</v>
       </c>
     </row>
     <row r="86" customFormat="1" spans="1:4">
@@ -2439,132 +2436,125 @@
         <v>114</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D86" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>34000</v>
+        <v>122</v>
+      </c>
+      <c r="D86" s="25">
+        <v>19000</v>
       </c>
     </row>
     <row r="87" customFormat="1" spans="1:4">
       <c r="A87" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D87" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>24000</v>
+        <v>124</v>
+      </c>
+      <c r="D87" s="25">
+        <v>14000</v>
       </c>
     </row>
     <row r="88" customFormat="1" spans="1:4">
       <c r="A88" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D88" s="13" t="str">
-        <f t="shared" ref="D88:D92" si="2">LEFT(B89,FIND("-",B89)-1)</f>
-        <v>24000</v>
+        <v>126</v>
+      </c>
+      <c r="D88" s="25">
+        <v>9000</v>
       </c>
     </row>
     <row r="89" customFormat="1" spans="1:4">
       <c r="A89" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D89" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>19000</v>
+        <v>126</v>
+      </c>
+      <c r="D89" s="25">
+        <v>9000</v>
       </c>
     </row>
     <row r="90" customFormat="1" spans="1:4">
       <c r="A90" s="17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D90" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>14000</v>
+        <v>129</v>
+      </c>
+      <c r="D90" s="25">
+        <v>7000</v>
       </c>
     </row>
     <row r="91" customFormat="1" spans="1:4">
       <c r="A91" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D91" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>9000</v>
+        <v>131</v>
+      </c>
+      <c r="D91" s="25">
+        <v>5000</v>
       </c>
     </row>
     <row r="92" customFormat="1" spans="1:4">
       <c r="A92" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="D92" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>7000</v>
+      <c r="D92" s="25">
+        <v>5000</v>
       </c>
     </row>
     <row r="93" customFormat="1" spans="1:4">
       <c r="A93" s="17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="94" customFormat="1" spans="1:4">
       <c r="A94" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B94" s="13" t="s">
         <v>135</v>
       </c>
       <c r="C94" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D94" s="13" t="s">
         <v>134</v>
-      </c>
-      <c r="D94" s="13" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="95" customFormat="1" spans="1:4">
@@ -2578,7 +2568,7 @@
         <v>136</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="96" customFormat="1" spans="2:2">

--- a/sales/protected/commands/template/readexcel.xlsx
+++ b/sales/protected/commands/template/readexcel.xlsx
@@ -185,25 +185,25 @@
     <t>地方销售人员/地方区域个数（销售总人数/客户区域总数）</t>
   </si>
   <si>
-    <t>比例  &lt; 1/4</t>
+    <t>比例 ≤ 1/4</t>
   </si>
   <si>
     <t>得分 * 0.4</t>
   </si>
   <si>
-    <t>比例  &lt; 2/4</t>
+    <t>比例 ≤ 2/4</t>
   </si>
   <si>
     <t>得分 * 0.7</t>
   </si>
   <si>
-    <t>比例  &lt; 3/4</t>
+    <t>比例 ≤ 3/4</t>
   </si>
   <si>
     <t>得分 * 1</t>
   </si>
   <si>
-    <t>比例  &lt; 1</t>
+    <t>比例 ≤ 1</t>
   </si>
   <si>
     <t>得分 * 1.1</t>
@@ -443,8 +443,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -528,7 +528,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -543,14 +571,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,18 +609,57 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -586,90 +670,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -686,31 +686,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,151 +830,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,6 +911,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -925,50 +940,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -990,6 +966,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1002,8 +987,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1012,127 +1012,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1141,19 +1108,52 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1563,8 +1563,8 @@
   <sheetPr/>
   <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C49" sqref="B49 C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="3"/>

--- a/sales/protected/commands/template/readexcel.xlsx
+++ b/sales/protected/commands/template/readexcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="15360" windowHeight="10830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -245,10 +245,10 @@
     <t>级别3,地方年生意额≤14,400,000</t>
   </si>
   <si>
-    <t>级别4,地方年生意额≤24,400,000</t>
-  </si>
-  <si>
-    <t>级别5,地方年生意额≤36,400,000</t>
+    <t>级别4,地方年生意额≤24,000,000</t>
+  </si>
+  <si>
+    <t>级别5,地方年生意额≤36,000,000</t>
   </si>
   <si>
     <t>级别6,地方年生意额≤64,800,000</t>
@@ -443,8 +443,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -528,35 +528,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -570,10 +542,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -585,27 +639,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -616,60 +670,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -686,187 +686,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,21 +911,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -940,11 +925,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -967,18 +958,16 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -987,8 +976,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1007,36 +996,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1048,10 +1048,13 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1060,100 +1063,97 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1563,8 +1563,8 @@
   <sheetPr/>
   <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C49" sqref="B49 C49"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="3"/>
